--- a/activities.xlsx
+++ b/activities.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
